--- a/assets/files/A1.xlsx
+++ b/assets/files/A1.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9816" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Cod</t>
   </si>
@@ -214,9 +214,6 @@
     <t>A10R04</t>
   </si>
   <si>
-    <t>A10R05</t>
-  </si>
-  <si>
     <t>A10TR</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>A10U04</t>
   </si>
   <si>
-    <t>A10U05</t>
-  </si>
-  <si>
     <t>A10TU</t>
   </si>
   <si>
@@ -248,9 +242,6 @@
   </si>
   <si>
     <t>A10T04</t>
-  </si>
-  <si>
-    <t>A10T05</t>
   </si>
   <si>
     <t>A10TUR</t>
@@ -259,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,12 +302,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,2000 +614,1713 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="12" max="12" width="8.88671875" style="3"/>
+    <col min="17" max="17" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>15.577889447236181</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>30.653266331658291</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>1.0050251256281406</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="4">
         <v>52.763819095477388</v>
       </c>
-      <c r="H2" s="4">
+      <c r="G2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="H2" s="6">
         <v>7.4074074074074074</v>
       </c>
-      <c r="J2" s="1">
+      <c r="I2" s="6">
         <v>24.338624338624339</v>
       </c>
-      <c r="K2" s="1">
+      <c r="J2" s="6">
         <v>2.1164021164021163</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="K2" s="6">
         <v>66.137566137566139</v>
       </c>
-      <c r="N2" s="4">
+      <c r="L2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="M2" s="6">
         <v>11.597938144329897</v>
       </c>
-      <c r="P2" s="1">
+      <c r="N2" s="6">
         <v>27.577319587628867</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="O2" s="6">
         <v>1.5463917525773196</v>
       </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
+      <c r="P2" s="6">
         <v>59.27835051546392</v>
       </c>
-      <c r="T2" s="4">
+      <c r="Q2" s="5">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="4">
+        <v>13.253012048192771</v>
+      </c>
+      <c r="D3" s="4">
         <v>39.75903614457831</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>7.6305220883534135</v>
       </c>
-      <c r="F3" s="1">
-        <v>13.253012048192771</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="4">
         <v>39.357429718875501</v>
       </c>
-      <c r="H3" s="4">
+      <c r="G3" s="5">
         <v>249</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="H3" s="6">
+        <v>28.45528455284553</v>
+      </c>
+      <c r="I3" s="6">
         <v>37.398373983739837</v>
       </c>
-      <c r="K3" s="1">
+      <c r="J3" s="6">
         <v>7.3170731707317076</v>
       </c>
-      <c r="L3" s="1">
-        <v>28.45528455284553</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="K3" s="6">
         <v>26.829268292682926</v>
       </c>
-      <c r="N3" s="4">
+      <c r="L3" s="5">
         <v>123</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
+      <c r="M3" s="6">
+        <v>18.27956989247312</v>
+      </c>
+      <c r="N3" s="6">
         <v>38.978494623655912</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="O3" s="6">
         <v>7.5268817204301079</v>
       </c>
-      <c r="R3" s="1">
-        <v>18.27956989247312</v>
-      </c>
-      <c r="S3" s="1">
+      <c r="P3" s="6">
         <v>35.215053763440864</v>
       </c>
-      <c r="T3" s="4">
+      <c r="Q3" s="5">
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>14.989293361884368</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>38.972162740899357</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>4.282655246252677</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="4">
         <v>41.755888650963598</v>
       </c>
-      <c r="H4" s="4">
+      <c r="G4" s="5">
         <v>467</v>
       </c>
-      <c r="I4" s="1">
+      <c r="H4" s="6">
         <v>11.857707509881424</v>
       </c>
-      <c r="J4" s="1">
+      <c r="I4" s="6">
         <v>42.687747035573125</v>
       </c>
-      <c r="K4" s="1">
+      <c r="J4" s="6">
         <v>1.5810276679841897</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="K4" s="6">
         <v>43.873517786561266</v>
       </c>
-      <c r="N4" s="4">
+      <c r="L4" s="5">
         <v>253</v>
       </c>
-      <c r="O4" s="1">
+      <c r="M4" s="6">
         <v>13.888888888888889</v>
       </c>
-      <c r="P4" s="1">
+      <c r="N4" s="6">
         <v>40.277777777777779</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="O4" s="6">
         <v>3.3333333333333335</v>
       </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
+      <c r="P4" s="6">
         <v>42.5</v>
       </c>
-      <c r="T4" s="4">
+      <c r="Q4" s="5">
         <v>720</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="4">
+        <v>10.256410256410257</v>
+      </c>
+      <c r="D5" s="4">
         <v>11.538461538461538</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>11.538461538461538</v>
       </c>
-      <c r="F5" s="1">
-        <v>10.256410256410257</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="4">
         <v>66.666666666666671</v>
       </c>
-      <c r="H5" s="4">
+      <c r="G5" s="5">
         <v>78</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="H5" s="6">
+        <v>9.3862815884476536</v>
+      </c>
+      <c r="I5" s="6">
         <v>15.16245487364621</v>
       </c>
-      <c r="K5" s="1">
+      <c r="J5" s="6">
         <v>3.9711191335740073</v>
       </c>
-      <c r="L5" s="1">
-        <v>9.3862815884476536</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="K5" s="6">
         <v>71.480144404332137</v>
       </c>
-      <c r="N5" s="4">
+      <c r="L5" s="5">
         <v>277</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="M5" s="6">
+        <v>9.577464788732394</v>
+      </c>
+      <c r="N5" s="6">
         <v>14.366197183098592</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="O5" s="6">
         <v>5.6338028169014081</v>
       </c>
-      <c r="R5" s="1">
-        <v>9.577464788732394</v>
-      </c>
-      <c r="S5" s="1">
+      <c r="P5" s="6">
         <v>70.422535211267601</v>
       </c>
-      <c r="T5" s="4">
+      <c r="Q5" s="5">
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>10.824742268041238</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>38.659793814432987</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>6.1855670103092786</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="4">
         <v>44.329896907216494</v>
       </c>
-      <c r="H6" s="4">
+      <c r="G6" s="5">
         <v>194</v>
       </c>
-      <c r="I6" s="1">
+      <c r="H6" s="6">
         <v>10.909090909090908</v>
       </c>
-      <c r="J6" s="1">
+      <c r="I6" s="6">
         <v>26.363636363636363</v>
       </c>
-      <c r="K6" s="1">
+      <c r="J6" s="6">
         <v>6.3636363636363633</v>
       </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="K6" s="6">
         <v>56.363636363636367</v>
       </c>
-      <c r="N6" s="4">
+      <c r="L6" s="5">
         <v>110</v>
       </c>
-      <c r="O6" s="1">
+      <c r="M6" s="6">
         <v>10.855263157894736</v>
       </c>
-      <c r="P6" s="1">
+      <c r="N6" s="6">
         <v>34.210526315789473</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="O6" s="6">
         <v>6.25</v>
       </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="P6" s="6">
         <v>48.684210526315788</v>
       </c>
-      <c r="T6" s="4">
+      <c r="Q6" s="5">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="4">
+        <v>12.307692307692308</v>
+      </c>
+      <c r="D7" s="4">
         <v>13.846153846153847</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>27.692307692307693</v>
       </c>
-      <c r="F7" s="1">
-        <v>12.307692307692308</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="4">
         <v>46.153846153846153</v>
       </c>
-      <c r="H7" s="4">
+      <c r="G7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="H7" s="6">
+        <v>11.737089201877934</v>
+      </c>
+      <c r="I7" s="6">
         <v>12.67605633802817</v>
       </c>
-      <c r="K7" s="1">
+      <c r="J7" s="6">
         <v>27.699530516431924</v>
       </c>
-      <c r="L7" s="1">
-        <v>11.737089201877934</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="K7" s="6">
         <v>47.887323943661968</v>
       </c>
-      <c r="N7" s="4">
+      <c r="L7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="M7" s="6">
+        <v>12.009803921568627</v>
+      </c>
+      <c r="N7" s="6">
         <v>13.235294117647058</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="O7" s="6">
         <v>27.696078431372548</v>
       </c>
-      <c r="R7" s="1">
-        <v>12.009803921568627</v>
-      </c>
-      <c r="S7" s="1">
+      <c r="P7" s="6">
         <v>47.058823529411768</v>
       </c>
-      <c r="T7" s="4">
+      <c r="Q7" s="5">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="4">
+        <v>20.930232558139537</v>
+      </c>
+      <c r="D8" s="4">
         <v>13.953488372093023</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>2.3255813953488373</v>
       </c>
-      <c r="F8" s="1">
-        <v>20.930232558139537</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="4">
         <v>62.790697674418603</v>
       </c>
-      <c r="H8" s="4">
+      <c r="G8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="H8" s="6">
+        <v>17.431192660550458</v>
+      </c>
+      <c r="I8" s="6">
         <v>19.26605504587156</v>
       </c>
-      <c r="K8" s="1">
+      <c r="J8" s="6">
         <v>2.1406727828746179</v>
       </c>
-      <c r="L8" s="1">
-        <v>17.431192660550458</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="K8" s="6">
         <v>61.162079510703364</v>
       </c>
-      <c r="N8" s="4">
+      <c r="L8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="M8" s="6">
+        <v>17.837837837837839</v>
+      </c>
+      <c r="N8" s="6">
         <v>18.648648648648649</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="O8" s="6">
         <v>2.1621621621621623</v>
       </c>
-      <c r="R8" s="1">
-        <v>17.837837837837839</v>
-      </c>
-      <c r="S8" s="1">
+      <c r="P8" s="6">
         <v>61.351351351351354</v>
       </c>
-      <c r="T8" s="4">
+      <c r="Q8" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="4">
+        <v>11.382113821138212</v>
+      </c>
+      <c r="D9" s="4">
         <v>34.552845528455286</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>3.6585365853658538</v>
       </c>
-      <c r="F9" s="1">
-        <v>11.382113821138212</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F9" s="4">
         <v>50.40650406504065</v>
       </c>
-      <c r="H9" s="4">
+      <c r="G9" s="5">
         <v>246</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="H9" s="6">
+        <v>12.23021582733813</v>
+      </c>
+      <c r="I9" s="6">
         <v>32.374100719424462</v>
       </c>
-      <c r="K9" s="1">
+      <c r="J9" s="6">
         <v>2.1582733812949639</v>
       </c>
-      <c r="L9" s="1">
-        <v>12.23021582733813</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="K9" s="6">
         <v>53.237410071942449</v>
       </c>
-      <c r="N9" s="4">
+      <c r="L9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="M9" s="6">
+        <v>11.688311688311689</v>
+      </c>
+      <c r="N9" s="6">
         <v>33.766233766233768</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="O9" s="6">
         <v>3.116883116883117</v>
       </c>
-      <c r="R9" s="1">
-        <v>11.688311688311689</v>
-      </c>
-      <c r="S9" s="1">
+      <c r="P9" s="6">
         <v>51.428571428571431</v>
       </c>
-      <c r="T9" s="4">
+      <c r="Q9" s="5">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>18.390804597701148</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>42.52873563218391</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>1.1494252873563218</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F10" s="4">
         <v>37.931034482758619</v>
       </c>
-      <c r="H10" s="4">
+      <c r="G10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="H10" s="6">
         <v>7.4733096085409256</v>
       </c>
-      <c r="J10" s="1">
+      <c r="I10" s="6">
         <v>35.587188612099645</v>
       </c>
-      <c r="K10" s="1">
+      <c r="J10" s="6">
         <v>3.2028469750889679</v>
       </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="K10" s="6">
         <v>53.736654804270465</v>
       </c>
-      <c r="N10" s="4">
+      <c r="L10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="M10" s="6">
         <v>10.054347826086957</v>
       </c>
-      <c r="P10" s="1">
+      <c r="N10" s="6">
         <v>37.228260869565219</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="O10" s="6">
         <v>2.7173913043478262</v>
       </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
+      <c r="P10" s="6">
         <v>50</v>
       </c>
-      <c r="T10" s="4">
+      <c r="Q10" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="F11" s="4">
+        <v>53</v>
+      </c>
+      <c r="G11" s="5">
+        <v>200</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="I11" s="6">
+        <v>31.111111111111111</v>
+      </c>
+      <c r="J11" s="6">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1">
-        <v>53</v>
-      </c>
-      <c r="H11" s="4">
-        <v>200</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="K11" s="6">
+        <v>65.555555555555557</v>
+      </c>
+      <c r="L11" s="5">
+        <v>180</v>
+      </c>
+      <c r="M11" s="6">
+        <v>10</v>
+      </c>
+      <c r="N11" s="6">
+        <v>31.05263157894737</v>
+      </c>
+      <c r="O11" s="6">
         <v>0</v>
       </c>
-      <c r="J11" s="1">
-        <v>31.111111111111111</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="M11" s="1">
-        <v>65.555555555555557</v>
-      </c>
-      <c r="N11" s="4">
-        <v>180</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>31.05263157894737</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <v>10</v>
-      </c>
-      <c r="S11" s="1">
+      <c r="P11" s="6">
         <v>58.94736842105263</v>
       </c>
-      <c r="T11" s="4">
+      <c r="Q11" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>19.911504424778762</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>23.008849557522122</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>0.88495575221238942</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
+        <v>56.194690265486727</v>
+      </c>
+      <c r="G12" s="5">
+        <v>226</v>
+      </c>
+      <c r="H12" s="6">
+        <v>8.4415584415584419</v>
+      </c>
+      <c r="I12" s="6">
+        <v>30.519480519480521</v>
+      </c>
+      <c r="J12" s="6">
         <v>0</v>
       </c>
-      <c r="G12" s="1">
-        <v>56.194690265486727</v>
-      </c>
-      <c r="H12" s="4">
-        <v>226</v>
-      </c>
-      <c r="I12" s="1">
-        <v>8.4415584415584419</v>
-      </c>
-      <c r="J12" s="1">
-        <v>30.519480519480521</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="K12" s="6">
         <v>61.038961038961041</v>
       </c>
-      <c r="N12" s="4">
+      <c r="L12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="M12" s="6">
         <v>15.263157894736842</v>
       </c>
-      <c r="P12" s="1">
+      <c r="N12" s="6">
         <v>26.05263157894737</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="O12" s="6">
         <v>0.52631578947368418</v>
       </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
+      <c r="P12" s="6">
         <v>58.157894736842103</v>
       </c>
-      <c r="T12" s="4">
+      <c r="Q12" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>17.241379310344829</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>32.758620689655174</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>10.775862068965518</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="F13" s="4">
         <v>39.224137931034484</v>
       </c>
-      <c r="H13" s="4">
+      <c r="G13" s="5">
         <v>232</v>
       </c>
-      <c r="I13" s="1">
+      <c r="H13" s="6">
         <v>10.810810810810811</v>
       </c>
-      <c r="J13" s="1">
+      <c r="I13" s="6">
         <v>27.027027027027028</v>
       </c>
-      <c r="K13" s="1">
+      <c r="J13" s="6">
         <v>4.5045045045045047</v>
       </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="K13" s="6">
         <v>57.657657657657658</v>
       </c>
-      <c r="N13" s="4">
+      <c r="L13" s="5">
         <v>111</v>
       </c>
-      <c r="O13" s="1">
+      <c r="M13" s="6">
         <v>15.160349854227405</v>
       </c>
-      <c r="P13" s="1">
+      <c r="N13" s="6">
         <v>30.903790087463555</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="O13" s="6">
         <v>8.7463556851311957</v>
       </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1">
+      <c r="P13" s="6">
         <v>45.18950437317784</v>
       </c>
-      <c r="T13" s="4">
+      <c r="Q13" s="5">
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="4">
+        <v>7.3770491803278686</v>
+      </c>
+      <c r="D14" s="4">
         <v>38.524590163934427</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>4.0983606557377046</v>
       </c>
-      <c r="F14" s="1">
-        <v>7.3770491803278686</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="F14" s="4">
         <v>50</v>
       </c>
-      <c r="H14" s="4">
+      <c r="G14" s="5">
         <v>122</v>
       </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="H14" s="6">
+        <v>9.9601593625498008</v>
+      </c>
+      <c r="I14" s="6">
         <v>27.490039840637451</v>
       </c>
-      <c r="K14" s="1">
+      <c r="J14" s="6">
         <v>3.5856573705179282</v>
       </c>
-      <c r="L14" s="1">
-        <v>9.9601593625498008</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="K14" s="6">
         <v>58.964143426294818</v>
       </c>
-      <c r="N14" s="4">
+      <c r="L14" s="5">
         <v>251</v>
       </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
+      <c r="M14" s="6">
+        <v>9.1152815013404833</v>
+      </c>
+      <c r="N14" s="6">
         <v>31.099195710455763</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="O14" s="6">
         <v>3.7533512064343162</v>
       </c>
-      <c r="R14" s="1">
-        <v>9.1152815013404833</v>
-      </c>
-      <c r="S14" s="1">
+      <c r="P14" s="6">
         <v>56.03217158176944</v>
       </c>
-      <c r="T14" s="4">
+      <c r="Q14" s="5">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43.75</v>
+      </c>
+      <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
-        <v>43.75</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>6.25</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F15" s="4">
         <v>50</v>
       </c>
-      <c r="H15" s="4">
+      <c r="G15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="H15" s="6">
+        <v>1.4836795252225519</v>
+      </c>
+      <c r="I15" s="6">
         <v>43.620178041543028</v>
       </c>
-      <c r="K15" s="1">
+      <c r="J15" s="6">
         <v>0.29673590504451036</v>
       </c>
-      <c r="L15" s="1">
-        <v>1.4836795252225519</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="K15" s="6">
         <v>54.59940652818991</v>
       </c>
-      <c r="N15" s="4">
+      <c r="L15" s="5">
         <v>337</v>
       </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="M15" s="6">
+        <v>2.0779220779220777</v>
+      </c>
+      <c r="N15" s="6">
         <v>43.636363636363633</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="O15" s="6">
         <v>0.25974025974025972</v>
       </c>
-      <c r="R15" s="1">
-        <v>2.0779220779220777</v>
-      </c>
-      <c r="S15" s="1">
+      <c r="P15" s="6">
         <v>54.025974025974023</v>
       </c>
-      <c r="T15" s="4">
+      <c r="Q15" s="5">
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4">
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
-        <v>25.333333333333332</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="F16" s="4">
+        <v>68.666666666666671</v>
+      </c>
+      <c r="G16" s="5">
+        <v>150</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.42372881355932202</v>
+      </c>
+      <c r="I16" s="6">
+        <v>50.423728813559322</v>
+      </c>
+      <c r="J16" s="6">
         <v>0</v>
       </c>
-      <c r="F16" s="1">
-        <v>6</v>
-      </c>
-      <c r="G16" s="1">
-        <v>68.666666666666671</v>
-      </c>
-      <c r="H16" s="4">
-        <v>150</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="K16" s="6">
+        <v>49.152542372881356</v>
+      </c>
+      <c r="L16" s="5">
+        <v>236</v>
+      </c>
+      <c r="M16" s="6">
+        <v>2.5906735751295336</v>
+      </c>
+      <c r="N16" s="6">
+        <v>40.673575129533681</v>
+      </c>
+      <c r="O16" s="6">
         <v>0</v>
       </c>
-      <c r="J16" s="1">
-        <v>50.423728813559322</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.42372881355932202</v>
-      </c>
-      <c r="M16" s="1">
-        <v>49.152542372881356</v>
-      </c>
-      <c r="N16" s="4">
-        <v>236</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>40.673575129533681</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <v>2.5906735751295336</v>
-      </c>
-      <c r="S16" s="1">
+      <c r="P16" s="6">
         <v>56.73575129533679</v>
       </c>
-      <c r="T16" s="4">
+      <c r="Q16" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D17" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="5">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="H17" s="6">
         <v>14.960629921259843</v>
       </c>
-      <c r="J17" s="1">
+      <c r="I17" s="6">
         <v>23.622047244094489</v>
       </c>
-      <c r="K17" s="1">
+      <c r="J17" s="6">
         <v>8.1364829396325451</v>
       </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="K17" s="6">
         <v>53.280839895013123</v>
       </c>
-      <c r="N17" s="4">
+      <c r="L17" s="5">
         <v>381</v>
       </c>
-      <c r="O17" s="1">
+      <c r="M17" s="6">
         <v>14.960629921259843</v>
       </c>
-      <c r="P17" s="1">
+      <c r="N17" s="6">
         <v>23.622047244094489</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="O17" s="6">
         <v>8.1364829396325451</v>
       </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
+      <c r="P17" s="6">
         <v>53.280839895013123</v>
       </c>
-      <c r="T17" s="4">
+      <c r="Q17" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>15.384615384615385</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>28.205128205128204</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>2.5641025641025643</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="F18" s="4">
         <v>53.846153846153847</v>
       </c>
-      <c r="H18" s="4">
+      <c r="G18" s="5">
         <v>39</v>
       </c>
-      <c r="I18" s="1">
+      <c r="H18" s="6">
         <v>15.451895043731778</v>
       </c>
-      <c r="J18" s="1">
+      <c r="I18" s="6">
         <v>33.236151603498541</v>
       </c>
-      <c r="K18" s="1">
+      <c r="J18" s="6">
         <v>2.3323615160349855</v>
       </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
+      <c r="K18" s="6">
         <v>48.979591836734691</v>
       </c>
-      <c r="N18" s="4">
+      <c r="L18" s="5">
         <v>343</v>
       </c>
-      <c r="O18" s="1">
+      <c r="M18" s="6">
         <v>15.445026178010471</v>
       </c>
-      <c r="P18" s="1">
+      <c r="N18" s="6">
         <v>32.722513089005233</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="O18" s="6">
         <v>2.3560209424083771</v>
       </c>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1">
+      <c r="P18" s="6">
         <v>49.476439790575917</v>
       </c>
-      <c r="T18" s="4">
+      <c r="Q18" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>0</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>32.758620689655174</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>0.57471264367816088</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G19" s="5">
+        <v>174</v>
+      </c>
+      <c r="H19" s="6">
         <v>0</v>
       </c>
-      <c r="G19" s="1">
-        <v>66.666666666666671</v>
-      </c>
-      <c r="H19" s="4">
-        <v>174</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="I19" s="6">
+        <v>35.519125683060111</v>
+      </c>
+      <c r="J19" s="6">
         <v>0</v>
       </c>
-      <c r="J19" s="1">
-        <v>35.519125683060111</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="K19" s="6">
+        <v>64.480874316939889</v>
+      </c>
+      <c r="L19" s="5">
+        <v>183</v>
+      </c>
+      <c r="M19" s="6">
         <v>0</v>
       </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>64.480874316939889</v>
-      </c>
-      <c r="N19" s="4">
-        <v>183</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
+      <c r="N19" s="6">
         <v>34.173669467787114</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="O19" s="6">
         <v>0.28011204481792717</v>
       </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
+      <c r="P19" s="6">
         <v>65.546218487394952</v>
       </c>
-      <c r="T19" s="4">
+      <c r="Q19" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>24.242424242424242</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>12.121212121212121</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>3.0303030303030303</v>
       </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="F20" s="4">
         <v>60.606060606060609</v>
       </c>
-      <c r="H20" s="4">
+      <c r="G20" s="5">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="H20" s="6">
         <v>23.913043478260871</v>
       </c>
-      <c r="J20" s="1">
+      <c r="I20" s="6">
         <v>13.586956521739131</v>
       </c>
-      <c r="K20" s="1">
+      <c r="J20" s="6">
         <v>2.4456521739130435</v>
       </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
+      <c r="K20" s="6">
         <v>60.054347826086953</v>
       </c>
-      <c r="N20" s="4">
+      <c r="L20" s="5">
         <v>368</v>
       </c>
-      <c r="O20" s="1">
+      <c r="M20" s="6">
         <v>23.940149625935163</v>
       </c>
-      <c r="P20" s="1">
+      <c r="N20" s="6">
         <v>13.466334164588529</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="O20" s="6">
         <v>2.4937655860349128</v>
       </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1">
+      <c r="P20" s="6">
         <v>60.099750623441395</v>
       </c>
-      <c r="T20" s="4">
+      <c r="Q20" s="5">
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>13.793103448275861</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>33.004926108374384</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>1.4778325123152709</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="F21" s="4">
         <v>51.724137931034484</v>
       </c>
-      <c r="H21" s="4">
+      <c r="G21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="H21" s="6">
         <v>9.4444444444444446</v>
       </c>
-      <c r="J21" s="1">
+      <c r="I21" s="6">
         <v>34.444444444444443</v>
       </c>
-      <c r="K21" s="1">
+      <c r="J21" s="6">
         <v>4.4444444444444446</v>
       </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
+      <c r="K21" s="6">
         <v>51.666666666666664</v>
       </c>
-      <c r="N21" s="4">
+      <c r="L21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="M21" s="6">
         <v>11.74934725848564</v>
       </c>
-      <c r="P21" s="1">
+      <c r="N21" s="6">
         <v>33.681462140992167</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="O21" s="6">
         <v>2.8720626631853787</v>
       </c>
-      <c r="R21" s="1">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1">
+      <c r="P21" s="6">
         <v>51.697127937336816</v>
       </c>
-      <c r="T21" s="4">
+      <c r="Q21" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>8.6705202312138727</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>38.728323699421964</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>2.3121387283236996</v>
       </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="F22" s="4">
         <v>50.289017341040463</v>
       </c>
-      <c r="H22" s="4">
+      <c r="G22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="H22" s="6">
         <v>11.219512195121951</v>
       </c>
-      <c r="J22" s="1">
+      <c r="I22" s="6">
         <v>42.439024390243901</v>
       </c>
-      <c r="K22" s="1">
+      <c r="J22" s="6">
         <v>3.9024390243902438</v>
       </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
+      <c r="K22" s="6">
         <v>42.439024390243901</v>
       </c>
-      <c r="N22" s="4">
+      <c r="L22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="M22" s="6">
         <v>10.052910052910052</v>
       </c>
-      <c r="P22" s="1">
+      <c r="N22" s="6">
         <v>40.74074074074074</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="O22" s="6">
         <v>3.1746031746031744</v>
       </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1">
+      <c r="P22" s="6">
         <v>46.031746031746032</v>
       </c>
-      <c r="T22" s="4">
+      <c r="Q22" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C23" s="4">
+        <v>16.48936170212766</v>
+      </c>
+      <c r="D23" s="4">
         <v>31.382978723404257</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>9.0425531914893611</v>
       </c>
-      <c r="F23" s="1">
-        <v>16.48936170212766</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="F23" s="4">
         <v>43.085106382978722</v>
       </c>
-      <c r="H23" s="4">
+      <c r="G23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="H23" s="6">
+        <v>8.7179487179487172</v>
+      </c>
+      <c r="I23" s="6">
         <v>27.692307692307693</v>
       </c>
-      <c r="K23" s="1">
+      <c r="J23" s="6">
         <v>12.307692307692308</v>
       </c>
-      <c r="L23" s="1">
-        <v>8.7179487179487172</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="K23" s="6">
         <v>51.282051282051285</v>
       </c>
-      <c r="N23" s="4">
+      <c r="L23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1">
+      <c r="M23" s="6">
+        <v>12.532637075718016</v>
+      </c>
+      <c r="N23" s="6">
         <v>29.503916449086162</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="O23" s="6">
         <v>10.704960835509139</v>
       </c>
-      <c r="R23" s="1">
-        <v>12.532637075718016</v>
-      </c>
-      <c r="S23" s="1">
+      <c r="P23" s="6">
         <v>47.258485639686683</v>
       </c>
-      <c r="T23" s="4">
+      <c r="Q23" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="4">
+        <v>43.75</v>
+      </c>
+      <c r="D24" s="4">
         <v>1.5625</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>4.375</v>
       </c>
-      <c r="F24" s="1">
-        <v>43.75</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="F24" s="4">
         <v>50.3125</v>
       </c>
-      <c r="H24" s="4">
+      <c r="G24" s="5">
         <v>320</v>
       </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="H24" s="6">
+        <v>41.935483870967744</v>
+      </c>
+      <c r="I24" s="6">
         <v>11.290322580645162</v>
       </c>
-      <c r="K24" s="1">
+      <c r="J24" s="6">
         <v>3.225806451612903</v>
       </c>
-      <c r="L24" s="1">
-        <v>41.935483870967744</v>
-      </c>
-      <c r="M24" s="1">
+      <c r="K24" s="6">
         <v>43.548387096774192</v>
       </c>
-      <c r="N24" s="4">
+      <c r="L24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1">
+      <c r="M24" s="6">
+        <v>43.455497382198956</v>
+      </c>
+      <c r="N24" s="6">
         <v>3.1413612565445028</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="O24" s="6">
         <v>4.1884816753926701</v>
       </c>
-      <c r="R24" s="1">
-        <v>43.455497382198956</v>
-      </c>
-      <c r="S24" s="1">
+      <c r="P24" s="6">
         <v>49.214659685863872</v>
       </c>
-      <c r="T24" s="4">
+      <c r="Q24" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="4">
+        <v>10.695187165775401</v>
+      </c>
+      <c r="D25" s="4">
         <v>31.550802139037433</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>2.1390374331550803</v>
       </c>
-      <c r="F25" s="1">
-        <v>10.695187165775401</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="F25" s="4">
         <v>55.614973262032088</v>
       </c>
-      <c r="H25" s="4">
+      <c r="G25" s="5">
         <v>187</v>
       </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="H25" s="6">
+        <v>6.25</v>
+      </c>
+      <c r="I25" s="6">
         <v>29.6875</v>
       </c>
-      <c r="K25" s="1">
+      <c r="J25" s="6">
         <v>2.0833333333333335</v>
       </c>
-      <c r="L25" s="1">
-        <v>6.25</v>
-      </c>
-      <c r="M25" s="1">
+      <c r="K25" s="6">
         <v>61.979166666666664</v>
       </c>
-      <c r="N25" s="4">
+      <c r="L25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1">
+      <c r="M25" s="6">
+        <v>8.4432717678100264</v>
+      </c>
+      <c r="N25" s="6">
         <v>30.606860158311346</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="O25" s="6">
         <v>2.1108179419525066</v>
       </c>
-      <c r="R25" s="1">
-        <v>8.4432717678100264</v>
-      </c>
-      <c r="S25" s="1">
+      <c r="P25" s="6">
         <v>58.839050131926122</v>
       </c>
-      <c r="T25" s="4">
+      <c r="Q25" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>27.036395147313691</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>19.237435008665511</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>6.7590987868284227</v>
       </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="F26" s="4">
         <v>46.967071057192378</v>
       </c>
-      <c r="H26" s="4">
+      <c r="G26" s="5">
         <v>577</v>
       </c>
-      <c r="I26" s="1">
+      <c r="H26" s="6">
         <v>6.1254612546125458</v>
       </c>
-      <c r="J26" s="1">
+      <c r="I26" s="6">
         <v>41.107011070110701</v>
       </c>
-      <c r="K26" s="1">
+      <c r="J26" s="6">
         <v>3.9114391143911438</v>
       </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
+      <c r="K26" s="6">
         <v>48.85608856088561</v>
       </c>
-      <c r="N26" s="4">
+      <c r="L26" s="5">
         <v>1355</v>
       </c>
-      <c r="O26" s="1">
+      <c r="M26" s="6">
         <v>12.370600414078675</v>
       </c>
-      <c r="P26" s="1">
+      <c r="N26" s="6">
         <v>34.575569358178051</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="O26" s="6">
         <v>4.7619047619047619</v>
       </c>
-      <c r="R26" s="1">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1">
+      <c r="P26" s="6">
         <v>48.29192546583851</v>
       </c>
-      <c r="T26" s="4">
+      <c r="Q26" s="5">
         <v>1932</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="4">
+        <v>4.225352112676056</v>
+      </c>
+      <c r="D27" s="4">
         <v>36.619718309859152</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>4.225352112676056</v>
       </c>
-      <c r="F27" s="1">
-        <v>4.225352112676056</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="F27" s="4">
         <v>54.929577464788736</v>
       </c>
-      <c r="H27" s="4">
+      <c r="G27" s="5">
         <v>142</v>
       </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="H27" s="6">
+        <v>5.3406998158379375</v>
+      </c>
+      <c r="I27" s="6">
         <v>54.32780847145488</v>
       </c>
-      <c r="K27" s="1">
+      <c r="J27" s="6">
         <v>0.73664825046040516</v>
       </c>
-      <c r="L27" s="1">
-        <v>5.3406998158379375</v>
-      </c>
-      <c r="M27" s="1">
+      <c r="K27" s="6">
         <v>39.594843462246779</v>
       </c>
-      <c r="N27" s="4">
+      <c r="L27" s="5">
         <v>543</v>
       </c>
-      <c r="O27" s="1">
-        <v>0</v>
-      </c>
-      <c r="P27" s="1">
+      <c r="M27" s="6">
+        <v>5.1094890510948909</v>
+      </c>
+      <c r="N27" s="6">
         <v>50.65693430656934</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="O27" s="6">
         <v>1.4598540145985401</v>
       </c>
-      <c r="R27" s="1">
-        <v>5.1094890510948909</v>
-      </c>
-      <c r="S27" s="1">
+      <c r="P27" s="6">
         <v>42.773722627737229</v>
       </c>
-      <c r="T27" s="4">
+      <c r="Q27" s="5">
         <v>685</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" s="4">
+        <v>11.940298507462687</v>
+      </c>
+      <c r="D28" s="4">
         <v>29.850746268656717</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>8.2089552238805972</v>
       </c>
-      <c r="F28" s="1">
-        <v>11.940298507462687</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="F28" s="4">
         <v>50</v>
       </c>
-      <c r="H28" s="4">
+      <c r="G28" s="5">
         <v>134</v>
       </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="H28" s="6">
+        <v>6.8783068783068781</v>
+      </c>
+      <c r="I28" s="6">
         <v>38.624338624338627</v>
       </c>
-      <c r="K28" s="1">
+      <c r="J28" s="6">
         <v>6.3492063492063489</v>
       </c>
-      <c r="L28" s="1">
-        <v>6.8783068783068781</v>
-      </c>
-      <c r="M28" s="1">
+      <c r="K28" s="6">
         <v>48.148148148148145</v>
       </c>
-      <c r="N28" s="4">
+      <c r="L28" s="5">
         <v>189</v>
       </c>
-      <c r="O28" s="1">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1">
+      <c r="M28" s="6">
+        <v>8.9783281733746136</v>
+      </c>
+      <c r="N28" s="6">
         <v>34.984520123839012</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="O28" s="6">
         <v>7.1207430340557272</v>
       </c>
-      <c r="R28" s="1">
-        <v>8.9783281733746136</v>
-      </c>
-      <c r="S28" s="1">
+      <c r="P28" s="6">
         <v>48.916408668730654</v>
       </c>
-      <c r="T28" s="4">
+      <c r="Q28" s="5">
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29" s="4">
+        <v>25.806451612903224</v>
+      </c>
+      <c r="D29" s="4">
         <v>37.096774193548384</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>6.854838709677419</v>
       </c>
-      <c r="F29" s="1">
-        <v>25.806451612903224</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="F29" s="4">
         <v>30.241935483870968</v>
       </c>
-      <c r="H29" s="4">
+      <c r="G29" s="5">
         <v>248</v>
       </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="H29" s="6">
+        <v>10.655737704918034</v>
+      </c>
+      <c r="I29" s="6">
         <v>55.73770491803279</v>
       </c>
-      <c r="K29" s="1">
+      <c r="J29" s="6">
         <v>1.639344262295082</v>
       </c>
-      <c r="L29" s="1">
-        <v>10.655737704918034</v>
-      </c>
-      <c r="M29" s="1">
+      <c r="K29" s="6">
         <v>31.967213114754099</v>
       </c>
-      <c r="N29" s="4">
+      <c r="L29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
-        <v>0</v>
-      </c>
-      <c r="P29" s="1">
+      <c r="M29" s="6">
+        <v>20.810810810810811</v>
+      </c>
+      <c r="N29" s="6">
         <v>43.243243243243242</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="O29" s="6">
         <v>5.1351351351351351</v>
       </c>
-      <c r="R29" s="1">
-        <v>20.810810810810811</v>
-      </c>
-      <c r="S29" s="1">
+      <c r="P29" s="6">
         <v>30.810810810810811</v>
       </c>
-      <c r="T29" s="4">
+      <c r="Q29" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30" s="4">
+        <v>14.838709677419354</v>
+      </c>
+      <c r="D30" s="4">
         <v>23.225806451612904</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>2.5806451612903225</v>
       </c>
-      <c r="F30" s="1">
-        <v>14.838709677419354</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="F30" s="4">
         <v>59.354838709677416</v>
       </c>
-      <c r="H30" s="4">
+      <c r="G30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="H30" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="I30" s="6">
         <v>38.362068965517238</v>
       </c>
-      <c r="K30" s="1">
+      <c r="J30" s="6">
         <v>3.0172413793103448</v>
       </c>
-      <c r="L30" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="M30" s="1">
+      <c r="K30" s="6">
         <v>46.120689655172413</v>
       </c>
-      <c r="N30" s="4">
+      <c r="L30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
-        <v>0</v>
-      </c>
-      <c r="P30" s="1">
+      <c r="M30" s="6">
+        <v>13.436692506459949</v>
+      </c>
+      <c r="N30" s="6">
         <v>32.299741602067186</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="O30" s="6">
         <v>2.842377260981912</v>
       </c>
-      <c r="R30" s="1">
-        <v>13.436692506459949</v>
-      </c>
-      <c r="S30" s="1">
+      <c r="P30" s="6">
         <v>51.421188630490953</v>
       </c>
-      <c r="T30" s="4">
+      <c r="Q30" s="5">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>17.272727272727273</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>50.909090909090907</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>0</v>
       </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="F31" s="4">
         <v>31.818181818181817</v>
       </c>
-      <c r="H31" s="4">
+      <c r="G31" s="5">
         <v>110</v>
       </c>
-      <c r="I31" s="1">
+      <c r="H31" s="6">
         <v>13.970588235294118</v>
       </c>
-      <c r="J31" s="1">
+      <c r="I31" s="6">
         <v>33.455882352941174</v>
       </c>
-      <c r="K31" s="1">
+      <c r="J31" s="6">
         <v>1.838235294117647</v>
       </c>
-      <c r="L31" s="1">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1">
+      <c r="K31" s="6">
         <v>50.735294117647058</v>
       </c>
-      <c r="N31" s="4">
+      <c r="L31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="M31" s="6">
         <v>14.921465968586388</v>
       </c>
-      <c r="P31" s="1">
+      <c r="N31" s="6">
         <v>38.481675392670155</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="O31" s="6">
         <v>1.3089005235602094</v>
       </c>
-      <c r="R31" s="1">
-        <v>0</v>
-      </c>
-      <c r="S31" s="1">
+      <c r="P31" s="6">
         <v>45.287958115183244</v>
       </c>
-      <c r="T31" s="4">
+      <c r="Q31" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>20</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>26.666666666666668</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="F32" s="4">
         <v>46.666666666666664</v>
       </c>
-      <c r="H32" s="4">
+      <c r="G32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="H32" s="6">
         <v>12.5</v>
       </c>
-      <c r="J32" s="1">
+      <c r="I32" s="6">
         <v>25.277777777777779</v>
       </c>
-      <c r="K32" s="1">
+      <c r="J32" s="6">
         <v>5</v>
       </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
+      <c r="K32" s="6">
         <v>57.222222222222221</v>
       </c>
-      <c r="N32" s="4">
+      <c r="L32" s="5">
         <v>360</v>
       </c>
-      <c r="O32" s="1">
+      <c r="M32" s="6">
         <v>12.8</v>
       </c>
-      <c r="P32" s="1">
+      <c r="N32" s="6">
         <v>25.333333333333332</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="O32" s="6">
         <v>5.0666666666666664</v>
       </c>
-      <c r="R32" s="1">
-        <v>0</v>
-      </c>
-      <c r="S32" s="1">
+      <c r="P32" s="6">
         <v>56.8</v>
       </c>
-      <c r="T32" s="4">
+      <c r="Q32" s="5">
         <v>375</v>
       </c>
     </row>
